--- a/Final_project/unique_qualities.xlsx
+++ b/Final_project/unique_qualities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,102 +434,84 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Quality_Code</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Quality_Code</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Quality_Description</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>Non Target</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>Non Qualified</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>Low</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>High</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>UNKNOWN</t>
         </is>
